--- a/src/test/resources/GoldBharath.xlsx.xlsx
+++ b/src/test/resources/GoldBharath.xlsx.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LLP_KYC" sheetId="1" r:id="rId1"/>
     <sheet name="PVT_LTD_KYC" sheetId="2" r:id="rId2"/>
+    <sheet name="LTD_KYC" sheetId="3" r:id="rId3"/>
+    <sheet name="Registration" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
   <si>
     <t>Sai</t>
   </si>
@@ -91,17 +93,39 @@
   </si>
   <si>
     <t>C:\Users\Admin\Pictures\Screenshots\Screenshot (20).png</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>ravijsjdc@gmail.com</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>18-07-2024</t>
+  </si>
+  <si>
+    <t>500072</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -704,10 +728,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1029,7 +1056,7 @@
   <sheetPr/>
   <dimension ref="B5:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -1044,12 +1071,12 @@
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1084,7 +1111,7 @@
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1104,7 +1131,7 @@
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1130,7 +1157,7 @@
   <dimension ref="B5:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1141,12 +1168,12 @@
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1176,7 +1203,7 @@
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1211,7 +1238,7 @@
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1231,7 +1258,7 @@
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1249,4 +1276,189 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B5:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B4:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="11.1111111111111"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" display="ravijsjdc@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>